--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NASK2_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NASK2_OPEN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -907,31 +907,43 @@
     <t>mavo?</t>
   </si>
   <si>
+    <t>H1: Stoffen en deeltjes, H2: Chemische reacties, H4: Mengen en scheiden</t>
+  </si>
+  <si>
+    <t>NASK2/K/8, NASK2/K/3, NASK2/V/3</t>
+  </si>
+  <si>
+    <t>H2: Chemische reacties, H3: Verbrandingen, H5: zouten</t>
+  </si>
+  <si>
+    <t>NASK2/K/9, NASK2/K/3, NASK2/V/3</t>
+  </si>
+  <si>
+    <t>H6: zuren en basen, H7: Water en reinigen, H8: Materialen, H9: Koolstofchemie, basiskennis H1 t/m H5</t>
+  </si>
+  <si>
+    <t>NASK2/K/4, NASK2/K/9, NASK2/V/3</t>
+  </si>
+  <si>
+    <t>vaardigheden in de scheikunde (scheikunde kennis H1 t/m H8 &amp; Vaardigheden)</t>
+  </si>
+  <si>
+    <t>NASK2/K/1, NASK2/K/2, NASK2/K/6, NASK2/V/3</t>
+  </si>
+  <si>
+    <t>De BINAS VMBO-KGT is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
+  </si>
+  <si>
     <t>H1: Stoffen en deeltjes, H4: Mengen en scheiden</t>
   </si>
   <si>
-    <t>NASK2/K/8, NASK2/K/3, NASK2/V/3</t>
-  </si>
-  <si>
     <t>H2: Chemische reacties, H3: Verbrandingen</t>
   </si>
   <si>
-    <t>NASK2/K/9, NASK2/K/3, NASK2/V/3</t>
-  </si>
-  <si>
     <t>H7: Water en reinigen, H8: Materialen, H9: Koolstofchemie</t>
   </si>
   <si>
-    <t>NASK2/K/4, NASK2/K/9, NASK2/V/3</t>
-  </si>
-  <si>
     <t>vaardigheden in de scheikunde (scheikunde kennis H1 t/m H4, H7 t/m H9 &amp; Vaardigheden)</t>
-  </si>
-  <si>
-    <t>NASK2/K/1, NASK2/K/2, NASK2/K/6, NASK2/V/3</t>
-  </si>
-  <si>
-    <t>De BINAS VMBO-KGT is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2670,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3049,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -3143,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -3237,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -3610,7 +3622,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -4942,7 +4956,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5314,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -5333,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -5408,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -5427,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -5502,7 +5516,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -5521,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -5596,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -5615,7 +5629,7 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>79</v>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NASK2_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NASK2_OPEN.xlsx
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
